--- a/lottery.xlsx
+++ b/lottery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\hello world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE20DF0-CC82-4A33-A74A-4E8CCE8A49D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3475AFF-2C31-46A0-974A-3649D08DAF83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14790" yWindow="4215" windowWidth="13965" windowHeight="11385" xr2:uid="{669F61D3-20C8-4122-90D7-20A473A1D822}"/>
   </bookViews>
